--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed3/result_data_RandomForest.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.920599999999997</v>
+        <v>-8.710899999999995</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.819099999999993</v>
+        <v>9.040799999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.243399999999995</v>
+        <v>-7.231599999999994</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.64570000000002</v>
+        <v>-12.38390000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.506099999999998</v>
+        <v>-7.679099999999997</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.0596</v>
+        <v>-22.10340000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.0874</v>
+        <v>-13.1068</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.9651</v>
+        <v>-22.1715</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.809600000000001</v>
+        <v>5.810199999999997</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.08099999999999</v>
+        <v>-21.86859999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>6.090300000000002</v>
+        <v>5.9041</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.9868</v>
+        <v>-11.3882</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-11.6233</v>
+        <v>-11.89509999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -642,10 +642,10 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.452499999999993</v>
+        <v>5.627399999999994</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.29149999999999</v>
+        <v>-14.55429999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.080699999999996</v>
+        <v>5.286099999999998</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.17260000000001</v>
+        <v>-22.29410000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.748999999999988</v>
+        <v>-8.717699999999986</v>
       </c>
     </row>
     <row r="21">
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.4025</v>
+        <v>-13.2741</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.195900000000004</v>
+        <v>-8.329499999999996</v>
       </c>
     </row>
     <row r="24">
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.7486</v>
+        <v>-21.69159999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.8055</v>
+        <v>-12.7091</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -796,13 +796,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.265499999999996</v>
+        <v>5.267399999999998</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.841800000000002</v>
+        <v>-7.584700000000001</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.265200000000002</v>
+        <v>5.474099999999993</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.833700000000001</v>
+        <v>6.014299999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.626499999999998</v>
+        <v>7.9447</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.324</v>
+        <v>-12.2593</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.817100000000008</v>
+        <v>-7.802900000000007</v>
       </c>
     </row>
     <row r="35">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.70780000000001</v>
+        <v>-13.49500000000002</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-22.03880000000002</v>
+        <v>-21.77740000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>5.653300000000002</v>
+        <v>5.759399999999997</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.56629999999999</v>
+        <v>-12.41379999999999</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.679699999999997</v>
+        <v>-7.797899999999994</v>
       </c>
     </row>
     <row r="40">
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.53159999999999</v>
+        <v>-8.738199999999988</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>8.501500000000005</v>
+        <v>8.897899999999998</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.97010000000002</v>
+        <v>-13.11320000000002</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.37169999999999</v>
+        <v>-8.238999999999994</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.563299999999991</v>
+        <v>-8.328899999999994</v>
       </c>
     </row>
     <row r="43">
@@ -1090,13 +1090,13 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.275999999999998</v>
+        <v>6.287399999999998</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.950100000000001</v>
+        <v>-7.813700000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1135,7 +1135,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.94539999999999</v>
+        <v>-14.04729999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.195200000000001</v>
+        <v>5.106300000000002</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1163,10 +1163,10 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-13.10779999999999</v>
+        <v>-12.3174</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.910000000000005</v>
+        <v>-7.519299999999998</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.29349999999999</v>
+        <v>-22.3563</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.62960000000001</v>
+        <v>-12.7715</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1278,7 +1278,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.288999999999994</v>
+        <v>-8.643399999999994</v>
       </c>
     </row>
     <row r="61">
@@ -1306,7 +1306,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-9.05989999999999</v>
+        <v>-8.757799999999989</v>
       </c>
     </row>
     <row r="63">
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.795700000000002</v>
+        <v>5.804899999999999</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.3934</v>
+        <v>-11.48659999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.4667</v>
+        <v>-21.481</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.184999999999997</v>
+        <v>-7.008899999999994</v>
       </c>
     </row>
     <row r="71">
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.137499999999998</v>
+        <v>-7.280400000000004</v>
       </c>
     </row>
     <row r="73">
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.350899999999996</v>
+        <v>9.2799</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.7201</v>
+        <v>-20.6139</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.92409999999997</v>
+        <v>-19.83029999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.66339999999999</v>
+        <v>-20.64619999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.48329999999999</v>
+        <v>-19.3399</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.14480000000002</v>
+        <v>-22.18890000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.51959999999999</v>
+        <v>-21.58310000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1600,18 +1600,18 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.960499999999998</v>
+        <v>-8.983400000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.03750000000002</v>
+        <v>-22.06800000000003</v>
       </c>
       <c r="B84" t="n">
-        <v>5.081900000000002</v>
+        <v>4.838499999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.4532</v>
+        <v>-12.49219999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>5.788099999999994</v>
+        <v>5.3119</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.5629</v>
+        <v>-13.63189999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1667,7 +1667,7 @@
         <v>5.44</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.206</v>
+        <v>-13.159</v>
       </c>
       <c r="D88" t="n">
         <v>-8.470000000000001</v>
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.763699999999997</v>
+        <v>4.897699999999997</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.0961</v>
+        <v>-14.2175</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.502299999999996</v>
+        <v>5.405999999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,10 +1762,10 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>6.224500000000002</v>
+        <v>5.7205</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.84950000000001</v>
+        <v>-12.98360000000001</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>7.4435</v>
+        <v>7.824299999999998</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.729599999999997</v>
+        <v>5.868199999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.83199999999999</v>
+        <v>-21.74549999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>5.862199999999996</v>
+        <v>5.691699999999996</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-22.08680000000003</v>
+        <v>-22.05260000000002</v>
       </c>
       <c r="B102" t="n">
-        <v>4.917599999999998</v>
+        <v>5.200899999999998</v>
       </c>
       <c r="C102" t="n">
         <v>-12.7</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-13.19660000000001</v>
+        <v>-13.3217</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
